--- a/medicine/Enfance/Joëlle_Jolivet/Joëlle_Jolivet.xlsx
+++ b/medicine/Enfance/Joëlle_Jolivet/Joëlle_Jolivet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jo%C3%ABlle_Jolivet</t>
+          <t>Joëlle_Jolivet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joëlle Jolivet est une illustratrice française née le 31 août 1965, qui travaille dans l'édition, la presse et la publicité.
 Elle vit et travaille à Ivry-sur-Seine.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jo%C3%ABlle_Jolivet</t>
+          <t>Joëlle_Jolivet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Joëlle Jolivet a toujours dessiné puis peint et gravé. Après des études de graphisme à l'École supérieure des arts appliqués Duperré à Paris, elle s’intéresse à la lithographie et suit des cours à l'École des beaux-arts de Paris. Cela la conduit à la gravure sur linoléum, son principal moyen d’expression.
 Elle a publié de nombreux albums édités dans le monde entier, illustré des couvertures de romans et travaille régulièrement pour la presse.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jo%C3%ABlle_Jolivet</t>
+          <t>Joëlle_Jolivet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1989 : Danger, bonbons !, de Christine Brouillet, coll. « Souris noire », Syros
 1990 : Ménagerie nocturne, de P. Moessinger, Nathan
@@ -624,9 +640,43 @@
 2014 :
 À Paris, texte de Ramona Badescu, Les Grandes Personnes
 Histoire d'un escargot qui découvrit l'importance de la lenteur, texte de Luis Sepulveda, Métailié
-2015 : Euraoundzeweurld, chansons de Merlot, Harmonia Mundi
-Expositions collectives
-De Lignes en Ligne - Galerie Daniel Maghen (Paris) - juillet 2011[1],[2]</t>
+2015 : Euraoundzeweurld, chansons de Merlot, Harmonia Mundi</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Joëlle_Jolivet</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jo%C3%ABlle_Jolivet</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Expositions collectives</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>De Lignes en Ligne - Galerie Daniel Maghen (Paris) - juillet 2011,</t>
         </is>
       </c>
     </row>
